--- a/data/test_50.xlsx
+++ b/data/test_50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\Who-is-who\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7874E7-9E32-4001-948E-F77C6DCE4584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA0CE49-F172-49C3-B41C-2D5904D8084E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9576170B-3061-4F48-A86A-6F112BD25521}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" xr2:uid="{9576170B-3061-4F48-A86A-6F112BD25521}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -957,7 +957,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/test_50.xlsx
+++ b/data/test_50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\Who-is-who\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA0CE49-F172-49C3-B41C-2D5904D8084E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0C449F-BDF6-41B6-8813-EBB53F3F79D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" xr2:uid="{9576170B-3061-4F48-A86A-6F112BD25521}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9576170B-3061-4F48-A86A-6F112BD25521}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>source</t>
   </si>
@@ -588,7 +588,632 @@
 bränsleutredn. 20-27, egen konsult,
 verksamh, sed. 27, lär. i maskinlära v.
 Sthlms tekn. mell:sk. sed. 32, spec:lär.
-33</t>
+33 v. KTH sed. 38. Skr.: Undersökn. på
+halvgasugnar, Eine symbol.
+Tempera-turkurve fur Schweden,
+Bränsleför-brukn. v. en större sjukvårdsanläggn.,
+Om spec. värmet h. gaser inom
+förbränningstekniken, Ångtorkn. av
+såg-virke, tidskr :upps. o. brosch. RVO.</t>
+  </si>
+  <si>
+    <t>http://runeberg.org/vemarvem/sthlm45/0530.html</t>
+  </si>
+  <si>
+    <t>Lundberg, Ivar, kamrer, Sthlm, f. 81.
+G. 12 m. Clara Wilhelmina Liedholm.
+Barn: Ivar f. 14, jur. kand., Arne f. 17,
+fil. måg. Kamrer i Hälsov :ndn (num.
+Sjukhusdir.) sed. 08. RVO 31.</t>
+  </si>
+  <si>
+    <t>Lundberg, Jacob Otto, disponent,
+Djursholm, ’f. 30/3/79 i Undenäs,
+Skaraborgs L, av civiling. Jacob L. o. Sofia
+Nilsson. G. 03 m. Hildur Aurelius.
+Ex. fr. Tekn. elem:sk. i Örebro 98.
+Prakt. v. mek. verkst, o. pappersbr. i
+Sv:e o. Norge, rit. i Ljusfors 99, förest.
+i Borkhult 00, ing. v. Hälla
+cellulosa-fabr. i Finl. 02, uppförde Loj o
+cellulo-safabr. i Finl. 05 o. förestod densamma
+05-08, disp. v. A/S Fladeby
+Cellulosa-fabr., A/S Torp Brug o. A/S Yven
+Pa-pirfabr. i Norge 09-22, verkst, dir. i
+A-B Dalakrafts Intress. 23-26, tillika
+konsult, ing. i Sthlm samma tid, repr.
+o. cnsamför’sälj. i Sthlm f. Munksjö
+A-B und. f :a Jacob O. Lundberg,
+Munksjö Lager sed. 25, bedriv, av. konsult,
+verksamh, i pappers- o.
+cellulosabranschen sed. 30. Hobby : Resor.</t>
+  </si>
+  <si>
+    <t>Lundberg, Johan Valfrid (Valle),
+kyrkoherde, Nacka, f. 30/3/88 i Upps.
+av vaktm. Johannes Lundberg o.
+Emma Karolina Wahlberg. G. 20 m.
+Karin Elisabeth Lignell. Stud :ex. i Upps.
+07, inskr. v. Upps. univ. 07, teol. fil. ex.
+08, teol. kand. 13, prakt. teol. prov 13,
+folkskollär :ex. 14, pv. f. Strängnäs stift
+14. Brukspred, v. Brevens bruk 14,
+tillika folkskollär. därst. 16,
+domkyrko-sysslom. o. domkyrkoadj. i Strängnäs
+17, p. e. b. avsked 18, past:adj. i S:t
+Johannes förs. i Sthlm 18, past:adj. i
+Nacka 19, komm. därst. 20, tilltr. 21,
+kyrkoh. i Nacka 39, tilltr. 40. Bibl. v.
+Upps. städs folkbibi. 09-13, sekr. i
+Nacka barnav:nd 19-25, ordf. sed. 26, ordf.
+i fören. Församlingshem i Nacka sed.
+39, v. ordf. i Nacka-kretsen av Sv.
+Röda Korset sed. 42.</t>
+  </si>
+  <si>
+    <t>Lundberg, Johannes, teol. dr, rektor,
+Sthlm, f. 8/5/86 i Sthlm av vaktm. H.
+E. L. o. Jans Kerstin Ersdtr. G. 30 m.
+Naemi Karlstedt. Barn: Hans f. 31,
+Staffan f. 32. Stud:ex. 05, teol. kand.
+08, teol. lic. 13, teol. dr 21. Docent i
+Nya Testis exeg. v. Upps. univ. 17,
+lektor i kristend. v. Norrköp :s h. allm,
+lärov. 24, v. h. allm. lärov, å österm.
+30, rektor där sed. 41. Sakk. f. lärob.
+i kristend. o. filosofi h. Stat. lärob :n&lt;i
+fr. 39, ordf. i Kyrkobröderna fr. 30, i
+Relig :vetenskapl. sällsk. i Sthlm 36-41.
+Resor t. Tyskl. 14, t. Tyskl., Schweiz
+o. Ital. 30. Skr.: Kristusmystiken h.
+Paulus (17), Bibelkonkordans, Nya Test.
+(tills. m. E. Eidem o. J. Lindblom 22),
+samtl. teol. art. i Bonniers konv :lex.
+I-XIII (22-29), Kristend :kunsk. o. fil. f.
+gymn. (studiehandb. 37-38). RNO 40.</t>
+  </si>
+  <si>
+    <t>Lundberg, Karl Einar, arkitekt SAR,
+intendent, Sthlm, f. 19/2/89 i Karlstad
+av reg :läk. o. stadsläk. Christian
+Nicolaus Christoffer L. o. Hildegard
+Katarina Gustafva Bergqvist. G. 18 m.
+Karin Isabella Augusta Bellander, d. 37.
+Barn: Ingegärd f. 22, g. m. civ :jägmäsL
+Bo I :son Nyström, Christian Einar f.
+25, off:asp. Elev v. H. allm. lärov, i
+Karlstad 98-05-, avg :ex. v. CTI 13, v,
+KTH 14, stud. v. univ. i Bonn 27, stud
+•-resor i Ital., Tyskl., Frankr., England
+m. fi. länder. Arkitektprakt, h. prof.
+Hans Hedlund 13, h. prof. I. G. Clason
+14, h. arkit. Fr. Falkenberg 15-16, h.
+prof. Erik Lallerstedt 18-20, h. prof.
+Sigurd Curman 20-23. Anst. v. Sthlms
+stads byggn:nd 21-22, v. Sthlms
+stacls-fastigh :nd 22-23, konst- o. kulturhisL
+kontrollant v. restaur. av S :ta Maria
+kyrka i Ystad 23-24, anst. h. länsarkiL
+Nils A. Blanck i Malmö 25-26, tjg. arkit,
+utom stat i Byggn :styr. fr. 26 o. bitr.
+arkit, åt styr:s kulturhist. byrå 27,
+intend, h. Byggn :styr. fr. 39. Utf. bl. a,
+ett 80-tal kyrkorestaur., ss. St.
+Herrestad, Borrie, Skivarp, St. Hammar o.
+Trollenäs i Skåne, Högsjö, Forssa o.
+Hudiksvall i Hälsingl., Trehörningsjö
+o. Dal i Ångermani., Västerfärnebo o.
+Vittinge i Västmanl., By, N. Finnskoga,
+Holmedal, Hammarö, Ransäter o.
+Degerfors i Värml. m. fi. samt uppgj.
+ritn. t. kyrkor i överkalix o. Åmotfors,
+kremat. i Kristinehamn, hyresh.,
+prästgårdar, villor o. kyrkogårdar m. m.
+Led. av styr. f. Skånska fören. f.
+bygg-nadskult., Werml. Sällsk. m. fi.
+styr:-uppdr. Led. av Konstnärsklubben.</t>
+  </si>
+  <si>
+    <t>Lundberg, Karl Gösta, assessor,
+Sthlm, f. 14/10/02 i Upps. av
+folkskollär. Alfred L. o. Tora Maria Blomqvist.
+G. 34 m. Ruth Fjellström. Barn:
+Kerstin Margaretha f. 38, Astrid Tora
+Elisabeth f. 41. Stud:ex. v. h. a. lärov, i
+Upps. 22, jur. kand. 27. Tingstjg, i
+Västerb. norra doms. 28-30, tjg, i Svea hovr. 31-32, tjg. i försäkr :rådet sed. 32,
+assess, där 39.</t>
+  </si>
+  <si>
+    <t>Lundberg, Karl Vilhelm Justus,
+rektor, Sthlm, f. 28/2/87 i Skärstad,
+Jon-köp. 1. G. 17 m. fil. kand. Ester Eke^
+dahl. Fil. kand. i Lund 11, fil. måg. 12,
+fil. lic. 17, fil. dr 21, docent i Lund
+21-29. Ord. lär. v. Lunds priv. elem :sk.
+19, medl. av dess direkt. 21-29, lekt. i
+modersmålet o. ty. v. H. allm. lärov. f.
+goss. i Malmö 24, insp. v. Anna o. Eva
+Bunths sk. f. fi. i Malmö 27-29, rekt. v.
+H. allm. lärov. f. fi. å Norrm. i Sthlm
+sed. 29. Kyrkofullm. i Sthlm 32-34,
+medl. av Sthlms domkap. 37-42, av
+Stat :s lärob :nd 38-42, av Sthlms
+folk-sk:direkt. 40-43, RNO.</t>
+  </si>
+  <si>
+    <t>Lundberg,. Nils Erik, med. dr, docent,
+Sthlm, f. 6/1/89 i H:borg av godsäg.
+Fredrik L. o. Elisabeth Gustafsson.
+G. 17 m. med. lic. Anna Kristina (Stina)
+Erika Beata Thyselius. Stud:ex. i
+Linköp. 06, med. kand. 10, med. lic. 16
+i Upps., med. dr i Sthlm 25. Doc. i
+experimentell med. v. Karol. inst. 26.
+Fältläk-stip. 13-16, båt :läk. v. FLK
+16-26 o. i res. 26-28. Kortare aman:- o.
+und :läk-.förordn, v. Sthlms epid:sjukh.
+16-21, e. läk. o. undrläk. v. Åsö sjukh.
+23, aman. v. Seraf :las. med. klin. 25-28,
+prakt. läk. i Sthlm sed. 28. Talrika
+stud :res. t. öl. europ, länder 18-40.
+Skr.: Ett 70-tal arb. i epidemiologi, inv.
+med. o. endokrinologi samt ett 30-tal
+populärmed. upps. o. böcker.
+Radioföreläsare sed. 34.</t>
+  </si>
+  <si>
+    <t>Lundberg, Nils Thure Konrad,
+civilingenjör, Ålsten, f. 15/11/87 i Sthlm av
+verkm. Conrad Waldemar L. o. Aug:a
+Olivia Svensson. G. 17 m. Johanna
+Sofia (Hanna) Hamrén. Barn:’Karin
+Anne-Marie f. 18, Inga Britta Olivia f.
+28. Stud:ex. i Sthlm 07, avg:ex. v.
+KTH 12. Anst. v. J. &amp; C. G. Bolinders
+Mek. Verkst. A-B 12-15, v. A-B de
+Lavals Ångturbin 15-16 o. v. denna f :as
+filial i Ryssland 16-18, åter ing. v. A-B
+de Lavals Ångturbin, Sthlm, fr. 18.</t>
+  </si>
+  <si>
+    <t>Lundberg, Olof, ingenjör, direktör,
+Midsommarkransen, f. 15/5/00 i
+Bruzaholm, Jönköp. L, av Elof K. H. L. o.
+Maria Rose. G. 43 m. Mildred Öhman.
+Barn: Claes f. 44. Ing:ex. v.
+Katrineholms Tekn. Skola 20. Konstr, v. OY
+Arabia, Finl., 27-30, d :o v. ASEA (Luth
+&amp; Rosén) 30-38, dir. v. Armaturfabr.
+Trio A-B sed. 38. Deläg. i Lundbergs
+Patentbolag, Saltsjöbaden. Medl. av
+üppfinnarefören., Värme- o.
+sanitets-tekn. fören.</t>
+  </si>
+  <si>
+    <t>Lundberg, Per Ivar, t. f. komminister,
+Sthlm, f. 31/8/95 i Norrköp, av köpm.
+Ivar Magnus L. o. Josefina Eriksson.
+G. 27 m. Elsa Dagmar Lilly Elisabet
+von Malmborg. Barn: Per Olof Vilhelm
+f. 29, Elsa Margareta Birgitta f. 32.
+Stud:ex. i Norrköp. 14, teol. fil. ex. 15,
+fil. kand. 20, teol. kand. 23, prakt. teol.
+prov 23, teol, lic. 39, teol. dr 42. Pv. f.
+Upps. ärkestift 23, past :adj. i S :ta Maria
+Magdalena förs. i Sthlm 24, kyrkoadj.
+i Högalid 25, predikant v. Rosenlunds
+å]derdomshem 26, t. f. kommin. i Adolf
+Fredriks förs. 40, vik. lärov :adj. v. H.
+allm. lärov, i Norrköp. 21-22, extralär.
+v. H. reallärov. å Norrm. i Sthlm 23-26,
+timlär. v. Sthlms stads tekn. mell:sk.
+Sekr. i Sv. fören. f. franska
+protestantismen. Skr.: Ur bibeln, Undervisn. i
+Den heliga Skrift (tills. m. prof. A.
+Fridrichsen, Sthlm, 40), La typologie
+baptismale dans l’ancienne église
+(grad:avh. 42), Kristus o. hans kyrka
+(44), ett flert. tidn:- o. tidskr :upps.</t>
+  </si>
+  <si>
+    <t>Lundbergh, Ragnar Sigfrid, f. d.
+hovrättsråd o. revisionssekreterare, Sthlm,
+f. 24/9/85 i Sthlm av grossh. Harald
+L. o. Wilma Söderquist-Flodin. G. 1.
+17-40 m. Eva Herrström, 2. 44 m.
+Jeanne Holmboe-Schenström. Barn i l :a
+giftet: Astrid f. 18, g. m. leg. läk. Tage KN02kl 37, SvRKBrM, silver
+skyttemärke samt en mängd pris i Skytte o.
+kappsegl.
+Borg, Eva f. 20, g. m. trafikch. i
+Aero-transp. Torsten Söderquist. Mog :ex.
+v. N. Latinlärov. i Sthlm 04, stud. i
+Upps. 04, jur. kand. 09, sångstud. i
+Sthlm 11-14, varav de sista åren f. D :r
+Gillis Bratt, psykolog, stud. i Wien 35.
+Har besökt flert. europ, länder, Syd- o.
+Centralamerika, U. S. A., Canada,
+Ca-narieöarna, Madeira m. fi. E. o. not. i
+Svea Hovr. o. i Sthlms Rådhusrätt 09,
+tingssittn. i S.Roslags o.Väster-Närkes
+doms. 10 o. 11, aman. i civildep. 11-13,
+därund. t. f. kanslisekr., t. f. fiskal i
+Svea Hovr. 14, e. o. assessor 15, ass. 16,
+fiskal 19, hovr:råd 22, t. f. rev:sekr.
+18, förordn, rev :sekr. 23, ord. rev :sekr.
+27, ånyo hovr :råd i Svea Hovr. 28, av
+Kgl. Maj :t förordn, v. ordf. å div. i
+hovr. 34, led. av o. v. ordf. i
+Vatten-överdomst. 35, und. långa tider förordn,
+ordf. såväl å div. som i
+Vattenöver-domst., avsk. m. pens. 40. Bitr. sekr.
+i den s. k. Elektr, kraftkomm. 12-13,
+styr:led. i f. d. Bryggare-Embetets i
+Sthlm pens:kassa 26-34, klubbmäst. i
+Sthlms nät. i Upps. 07-08. Hobbies:
+Bl. a. segling, längre sjöresor, filateli,</t>
+  </si>
+  <si>
+    <t>Lundberg, Sven Harald, civilingenjör,
+kapten, Lidingö, f. 14/6/91 i Sthlm av
+dir. Johan Harald L. o. Emma M. J,
+Schöldström. G. 21 m. Märtha Gustava
+Edgren. Barn: Kerstin Elisabeth f. 22.
+Und:löjtn. v. Fortif. 13, löjtn. 17, kapt.
+VVK 30. Stud:ex. 11, ex. CTH (VoV) 18.
+Byråing. i Väg- o. vattenbyggn:styr.
+Ag. Harbonäs säteri i Västmanl.
+Uppfunn. metod att av havsvatten
+framst. råmaterial f. tillverkn. av
+magnesium 38, självresande, osänkbar
+livbåt 39, "Stålbrynjan" f. bildäck 42.
+RVO 42.</t>
+  </si>
+  <si>
+    <t>Lundberg, Thorsten,, civilingenjör,
+Djursholm, f. 3/5/92 i Sthlm. Gmg. Tekn.
+Elem :sk. i Örebro, prakt. v. ASEA samt
+genomg. Kungl. Tekn. Högsk. el:tekn.
+fackavd. 14-19. Anst. v. A-B
+Elektraverken o. Bergvik o. Ala Nya A-B.
+Egen konsult, verksamh. 24-27, ing. v.
+Sthlms Elverk sed. 27, förste ing. f.
+distributionens första avd. sed. 35. Lär.
+v. Sthlms städs yrkesskolor 27-37, v.
+Sthlms Tekn. Inst. 33-42. Sakk. i Sv.
+normalkomm. f. elmätare fr. 38. Föret.
+stud :resor t. Tyskl., Schweiz o. Engl.
+21-22, Tyskl. o. Schweiz 30 o. 37, Finl.
+29 o. 32. Led. av Sv. Teknol.fören.</t>
+  </si>
+  <si>
+    <t>Lundberg, Åke Melcher Johan,
+bergsingenjör, Sthlm, f. 29/9/04 i Sthlm av
+överstelöjtn. K. A. L. o. Signe
+Ekströmer. G. 31 m. Allis Blumer. Barn:
+Vera f. 34, Marc f. 36, Berndt f. 39,
+Elena f. 41. Stud:ex. i Sthlm 23,
+avg:-ex. v. KTH 29. Stud:res. t. Tyskl. 25,
+31, 33, 39, 41, Engl. 32, 33, 39, Schweiz
+39, stud. v. Carnegie Inst. of Techn.,
+U. S. A., 32. Ing. v. Jernkontorets
+forskningsinst. 29-30, martining. v. A-B
+Bofors 30-32, mg. f. valsverk, smedja
+o. pressverk där 33-40, övering, o. tekn.
+ch. h. A-B Sv. Metallverken, Västerås,
+40-42, övering, o. tekn. led. h. OY
+Vuoksenniska A-B i H :f ors, Finl.,
+42-44, fr. 44 medarb, i T. An. Tesch A-B,
+Sthlm. Skr.: Om malmfärskn. i sur
+martinugn (tills. m. Tryggve Holm i
+Värml. Bergsmannafören :s annaler 29),
+Smidd lättmetall (Tekn. Tidskr. 35),
+Lättmetaller i industriens tjänst (Falu
+Ing:klubbs årsskr. 36), Modernt smide
+(Värml. Bergsmannaför:s annaler 39).</t>
+  </si>
+  <si>
+    <t>Lundberg-Gertz, Bror Hilding
+Brynolf, major, Sthlm, f. 6/10/88 i Bälinge,
+Upps. 1., av kyrkoh. Herman Fredrik
+L. .0. Anna Hildur Maria Norelius, ,G.
+20 m. Anna Blomberg. Barn: Britt
+Hildur Marianne f. 22. Und:löjtn. v.
+Jämtl. fältjägrreg. 08, löjtn. 13, kapten
+23, överg:stat 28, major 39, tjg. v.
+gen:staben i järnv:tj. 5 år, v. krigshist.
+avd. 2 år. Anst. i A-B Sthlms
+Patentbyrå sed. 30. RSO 29, KHS, GD.</t>
+  </si>
+  <si>
+    <t>Lundblad, Carl Olov, professor, Sthlm,
+f. i Upps. 13/10/90 av stadskassör Emil
+L. o. Laura Johansson. G. 21 m. Rut
+Forsmark, d. 37. Fil. mag. Upps. 18,
+fil. lic. 23, fil. dr 27. Assist, v. Köpenh.
+sotvattensbiolog. lab örat. 19-20, v.
+centralanst. f. försöksväs. på jordbr:omr.
+20-29, t. f. laborator där 29-32, l :e
+assist. v. stat. växtskyddsanst. 32-33, prof.
+v. Riksmuseets entomol. avd. sed. 33.
+Stud:res. t. Span., Portugal o. Madeira
+35. Utg. ett 150-tal zoolog, skr. RNO, LVA.</t>
+  </si>
+  <si>
+    <t>Lundblad, Hans Ragnar, undervisningsråd,
+Sthlm, f. i Nederluleå, Norrb. l., 16/5/93
+av kyrkoh. Joh:s L. o. Mandis Martinelle.
+G. 18 m. Anna-Greta Söderström.
+Barn: Anna Birgitta f. 20, fil. mag.
+Fil. mag. Upps. 13, fil. lic. 17, fil. dr 20,
+doc. i mek. o. mat. fysik 20, lekt. i
+Luleå 22, underv:råd 38 (t. f. 36).
+Skr.: Optik d. disp. Medien (grad:avh. 20).</t>
+  </si>
+  <si>
+    <t>Lundblom, Arthur Fritiof, med. lic.,
+prakt, läkare, Sthlm, f. 15/7/00 i New
+York av sjökapt. Alrik F. L. o. Bertha
+Georgina Lindgren. G. 29 m. Mona
+Elisabeth Ljungström. Barn: Britta f.
+30, Einar f. 35, Kerstin f. 39, Håkan f.
+44. Stud:ex. i Sthlm 22, med. kand. 26,
+med. lic. 32 v. Karol. inst. E. o. aman.
+v. Ortop. klin. i Sthlm 31-32, t. f.
+und:läk. v. Härnösands vanföreanst. 32, d:o
+v Apelvikens kust sanat. 32-33, t. f.
+aman. v. Gtbgs barnsjukh. kir. avd.
+33-34, t. f. und:läk. v. Filipstads las. 34,
+aman. o. und:läk. v. Ortop. klin. i
+Sthlm 34-37, 1:e und:läk. v. Garn:sjukh.
+i Sthlm kir. avd. 37-38, d:o v.
+Vänersb. las. kir. avd. 38-40, 1:e
+und:läk. v. Vanföreanst. i Gtbg 41, prakt,
+läk. i Sthlm, spec:läk. i ortopedi v.
+Sthlms folksk., pol:klin:läk. v.
+Vanföreanst. i Sthlm sed. 42 samt bitr. läk.
+v. Seraf:las. gymn. avd. sed. 44.</t>
+  </si>
+  <si>
+    <t>Lundborg, Einar, civilingenjör,
+Enskede, f. 27/12/95 i Sundby, Södermanl. l.,
+av folkskollär. A. G. L. o. Bertha
+Hallgren. Stud:ex. i Sthlm 15, avg:ex.
+v. KTH 20. Provn:ing. v. A-B
+Atlas-Diesel, Sthlm, konstr, v. Sv. A-B
+Nobel-Diesel i Nynäshamn t. 26, v.
+Burgerhout’s Maohine-fabriek en Scheepswerf i Rotterdam 26-32, v. A-B Atlas-Diesel,
+Sthlm, sed. 32.</t>
+  </si>
+  <si>
+    <t>Lundborg, Nils Arnold, civilingenjör,
+Solna, f. 27/8/05 i Malmö av köpm. N,
+L. o. Hedda Hansson. G. 35 m. Ottil
+Gullberg. Barn: Nils f. 38, Ulla f. 41.
+Stud :ex. i Malmö 23, avg :ex. v. KTH 28.
+Verkst :ing. v. Finspongs Metallverks
+A-B :s avd. Väsby Verkstäder i
+Uppl.-Väsby 29-43, nu dir :assist. h. A-B Alpha
+i Sundbyberg.</t>
+  </si>
+  <si>
+    <t>Lundborg, Ragnar, jur. dr, rektor,
+Sthlm, f. 29/4/77 av major H. E. L. o.
+h. h. f. Löhman. G. 01 m. Emy
+Tho-resson, d. 41. Barn: Margit f. 05, g. m.
+civiling. Gösta Ingelman, Dagmar f. 11.
+Rektor f. Norrmalms Ensk. Läroverk i
+Sthlm o. ordf. i dess styr. sed. 25.
+Folkrättslig författare. Företagit ett
+tiotal studieresor bl. a. m. statsbidrag.
+Hed :led. o. korresp, led. av flera
+akademier o. vetenskapliga samfund.</t>
+  </si>
+  <si>
+    <t>Lundbäck,, Thor Axel Ivar,
+överingenjör, Sthlm, f. 29/8/00 i Valbo,
+Gävleb. 1., av disp. Einar L. o. Ebba
+Engström. G. 26 m. Milci Hesse. Barn:
+Arvid f. 27, Lennart f. 29, Lärs-Ivar f.
+37. U-tex. v. KTH 23. Anst. v.
+Skutskärs cellul rfabr. 23-24, kemist v. Lee
+Paper Co., Vicksburg, Mich., U. S. A.,
+25, pappersmäst. 26, tekn. dir. v.
+Thil-many Pulp &amp; Paper Co., Kaukauna,
+Wise., 28, fabr :ch. v. Treetexfabr., A-B
+Mo &amp; Domsjö Wallboard Co.,
+örn-sköldsvik, 30, disp. v. A-B Emsfors
+Bruk 35-38, övering, i Rikskommiss. f.
+ekon. förvarsberedskap 38-40, avd:che£
+v. A-B Industribyråns luftskyddsavd.
+fr. 38. RFinlVROlkl.</t>
+  </si>
+  <si>
+    <t>Lundeberg, Erik Christian Kr :son,
+byråingenjör, Sthlm, f. 13/10/96 i
+Valbo, Gävleb. L, av brukspatr. Kristian
+W. L. o. Mathilda Ericson. G, 24 m.
+Vera Peyron. Barn: Kjell Christian f.
+27, Jan-Erik f. 30. Res :off. 16, avg :ex.
+v. KTH 20. Ing. h. Mek. prövn:anst.
+20-21 o. 22-23, försäljn :ch. h. Lindbergs
+maskinaff. 24-27, deläg. i Bilprovn :anst.
+27-30, besiktn :m. f. motorford. i Sthlm
+31-36, l:e byråing. h. Väg- o.
+vatten-byggn:styr. 36, ch. f. Stat,
+Trafikkom-m:s sekt. f. motorfordonstrafik 40-42.
+l/ed. av Sv. Teknologfören.</t>
+  </si>
+  <si>
+    <t>Lundeberg, Folke Olof, f. d.
+överfyr-ingenjör, f. d. överstelöjtnant, Sthlm,
+f. 24/11/78 i Valbo, Gävleb. L, av
+statsmin., bruksäg. Christian L. o. Anna
+Elfbrink. Avg:ex. fr. KTH 01, aspir
+:-kurs v. Fortif. 01. Ing. i Sthlms stads
+t&gt;yggn:kont. 02, v. järnv :byggn. Orsa-
+Sveg 02, h. distr :ch. i mell. o. övre n :a
+väg- o. vattenb :distr. 02-05, konstr, v.
+Sthlms gas- o. elektr :verks nybyggn.
+05-08, arb:ch. där 08-09, löjtn, i VVK
+07, fyring. h. lotsstyr 09-21, kapten 15,
+-överl’yring. o. led. av lotsstyr. 21-39,
+major 24, överstelöjtn. 31. Sv:es omb.
+v. internat, fyrtekn. konf. i London 29,
+Paris 33, Berlin 37, stud:res. i Danm.,
+Tyskl., Frankr., Engl., Ital. o. U. S. A.
+Styr :led. i Korsnäs Sågverks A-B, V :a
+.lämtl. Kraft A-B m. fi. KN02kl,
+KVO-2kl. Led. av Sv. Teknologfören.</t>
+  </si>
+  <si>
+    <t>Lundeberg, Gerard Wilhelm
+Kristiansson, direktör, Sthlm, f. 15/10/02 i
+Forsbacka, Valbo, Gävleb. 1., av
+brukspatron Kristian L. o. Mathilda Ericson.
+G. 27 m. Gerd Hernmarck. Barn:
+Göran f. 29, Anders f. 34. Stud:ex. i
+Sthlm 21, spr:stud. i Tyskl. o. England
+22-25, anst. s. tj :m. v. Sthlms Rederi
+A-B Svea 26-37, ch. f. ångbåtsavd. h
+A-B Olsson &amp; Wright t. 39, dir :assist.
+v. utrikesavd. l Sthlms Rederi A-B Svea
+sed. 39, ch. f. utrikesavd. sed. 44. Suppl,
+i styr. ,f. Korsnäs Sågverks A-B o.
+Gi-mo A-B sed. 42.</t>
+  </si>
+  <si>
+    <t>Lundegård, Erik Ewald Wilhelm,
+journalist, Sthlm, f. 18/3/00 i Luleå av
+red. Karl L. o. Emy Durén. G. 26 m.
+Karin Frösell. Barn: Björn f. 27,
+Stefan f. 32, Mats f. 37. Lärov :stud. i
+Sthlm. Anst. v. Sv. Telegr :byrån 18-21,
+i Sv. Dagbl. 22, i Dagens Nyheter fr. 23.
+Skr.: Ararat &amp; Co. (34), Någonstans i
+Sverige (40), Tre ungar (41), Spår i
+sanden (44). Medl. av Publ’.klubben.
+Sign.: ELD.</t>
+  </si>
+  <si>
+    <t>Lundell, Erik Adolf, direktör f.
+Ex-portfören :s Kreditupplysn :byrå, Sthlm,
+f. 10/7/92 i Ljusdal, Gävleb. L, av
+köpman E. F. L. o. Lovisa Stenberg. G.
+m. Irma Enström. Stud:ex. v. H. a.
+lärov, i Gävle 10, ex. v. Schartaus
+Hdlsinst. 11, Skerry’s College i Liverpool 14.
+Chef f. Exportfören :s Kreditupplysn
+:-byrå sed. 15.</t>
+  </si>
+  <si>
+    <t>Lundell, Gustaf Birger,, fabrikör,
+Sthlm, f. 21/5/86 i Värlnge förs.,
+Skarab. 1. Init :tag. t. centralis, av arméns
+beklädn :tillv. 14, led. av verkst, utsk.
+av Drottn. Centr :komm. styr., s.
+om-händerh. denna tillv., en av init :lag. t.
+Sthlms stads yrkessk. f. skrädd., led.
+av råd. f. Sthlms Skrädd :mäst. Gille, av
+Centralstyr, f. Sv :es Skrädderiarb :giv &gt;
+för. sed. 21, ordf. i Sthlms
+Skrädderi-idk :fören. sed. 28, led. av styr. f. Sthlms
+stads Hantv:fören. sed. 30, led. o. ordf.
+i Fören. Sthlms lärlingshem 21, förste v. ordf. i 86 års män, led. av
+yrkes-förb :s repr :skap inom Sv. Hantv :org.
+sed. 35, ordf. i revision, f. Sthlms stads
+lärl:- o. yrk:sk. sed. 34 m. fi. off. o.
+priv. förtroendeuppdr. Medl. av
+Frimurareorden, borgare 17, medl. i
+bor-gargillet. RVO, Patr spec hantvGM,
+SUSOförtjM, SSCFförtjGM.</t>
+  </si>
+  <si>
+    <t>Lundell, Torsten Adil, civilingenjör,
+Äppelviken, f. 15/2/98 i Upps. av
+folk-sk:lär. Carl Johan L. o. Adéle Carolina
+Steinbach. G. 24 m. Karin Gunhild
+Sundström. Barn : Torkel Torstensson
+f. 25, Rolf Torstensson f. 35. Stud:ex.
+i Upps. 16, avg:ex. v. KTH 21. Ing. v.
+Siemens Halske AG, Berlin, 22, v. Bell
+Telephone Laboratories, New York,
+23-26 o. v. Telefon A-B L. M. Ericsson,
+Sthlm, fr. 26. Led. av Sv. Teknol :fören.</t>
+  </si>
+  <si>
+    <t>Lundeqvist, Karl Joel Herbert,
+arkitekt, Sthlm, f. 16/8/94 i Sthlm av fabr.
+Thor L. o. Hildegard Lindström. G. 28
+m. Elin Berggren. Stud:ex. 14, Tekn.
+Högsk. 18, Konstakad. 22. Arkitekt i
+byggn:styr. Arb.: Kgl. Gen:tullstyr.,
+Stat. vet medicinska anst., Inst. f.
+bu-jatrik v. Vet:högsk. RVO 28.</t>
+  </si>
+  <si>
+    <t>Lundequist-Dahlström, Gerda Carola
+Cecilia, skådespelerska, Sthlm, f. i
+Sthlm. G. 08 m. dir. Alfred Dahlström,
+d. I Palmgren, o. Franska sk. i Sthlm
+Mus. akad. dramat, elevsk. 86-89, anst.
+v. Dramat, teat. i Sthlm 89-91, v. Sv.
+teat. i Gtbg o. h. Selander 91-95,
+Vasa-teat. i Sthlm 96-97, Sv. teat. 97-06, Dram.
+teat. 06-09, ch. f. H:borgs stadsteat, 24,
+lär :a v. operask. sed. 31, gästsp. v.
+Vasateat. i Sthlm o. RiksteatT 37-38, 42.
+Litt. et Art. 17.</t>
+  </si>
+  <si>
+    <t>Lundevall, Fredrik Adolf Immanuel,
+regeringsråd, Sthlm, f. 2/1/89 i
+Västland, Upps. L, av godsarrend. J. Fredr.
+L. o. Lotten Moberg. G. 16 m. Greta
+Höök. Jur. kand. i Upps. 12, länsbokh.
+i Örebro 1. 17, länsassess. 19,
+landskamrer i Upps. 1. 31, reg:råd sed. 35. Sekr.
+h. Örebro Stadsfullm. 16-18, led. av
+fullm. 23-24, öl. sakk:beredn. in.
+fin:-o. soc:dep. 23-33. Hed:led. av
+Gäst.-häls. nät. i Upps. 32, av Uppl. nät. 38.
+Skr.: Skattehandböcker m. m.
+KNO-Ikl, RVO.</t>
+  </si>
+  <si>
+    <t>Lundgren, August Albert Alexander,
+redaktör, Huddinge, f. 27/3/74 i Skön,
+Västernorrl. L, av fabr. Petrus L. o
+Anna Christina Norling. G. 98 m.
+Maria Johansson. Barn: Irma Maria
+Alexandra f. 00, g. Fogsten, Asta
+Elisabet Alexandra f. 03, g. Ohlson, Curt
+Alexander Robert f. 06, Gudrun Hilde-
+gard Alexandra f. 15, g. Jerfström.
+Prakt. v. mek. verkst, i Sthlm, tj :man
+v. Sthlms gasverk, studires. t. U. S. A.
+11-12, med stip. t. Tyskl., Ital. o.
+Österrike 14, stip. f.resa t. utst. i Wien
+25, disp. f. A-B Småbr :redsk. i Nykvarn
+15-18, sekr. i Sv :es biodl. riksförb. o.
+red. f. Bitidn. 20-36, expcd :chef l f örb.
+20-45. Skr.: Jordbrukets binäringar,
+Lärobok i biskötsel, Kupsnlckaren,
+Boken orn bina m. m. RVO 34, PatrGM 34.</t>
+  </si>
+  <si>
+    <t>Lundgren, Erik Herman,
+civilingenjör, Sthlm, f. 8/2/03 av fil. lic. H. L. o.
+Alma Procopée. G. 36 m. Ulla
+Vagemus. Barn: Nils f. 38, Stina f. 41,
+Karin f. 44. Stud:ex. 20, avg:ex. v. KTH
+26, Anst. v. Telefon A-B L. M.
+Ericsson 27-36, El. A-B Siemens sed. 36.
+Fackred. f. teleteknik i Tekn. Tidskr.
+Resor t. Tyskl., Engl., Frankr., Belgien,
+Holl., Österr., Tjeckoslovakien, Norge,
+Danmark-, Finland v. olika tillf. 31-43.</t>
   </si>
 </sst>
 </file>
@@ -954,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05C99C7-07D0-4224-8BB8-0F89A6453F48}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,12 +1823,190 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1212,8 +2015,9 @@
     <hyperlink ref="A18" r:id="rId2" xr:uid="{DE8869DB-F7D0-456F-8079-3480F8164466}"/>
     <hyperlink ref="A11:A17" r:id="rId3" display="http://runeberg.org/vemarvem/sthlm45/0527.html" xr:uid="{B303BF25-7801-4602-B810-8D2BB82F9CE3}"/>
     <hyperlink ref="A19:A24" r:id="rId4" display="http://runeberg.org/vemarvem/sthlm45/0528.html" xr:uid="{FBCB723F-F0E7-4330-AE5F-51E38E8E5ECE}"/>
+    <hyperlink ref="A30" r:id="rId5" xr:uid="{78AF350B-D233-4E74-976B-0FD539CAA58F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>